--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/82.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/82.xlsx
@@ -479,13 +479,13 @@
         <v>-0.254542517768548</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.313706514772814</v>
+        <v>-1.319010869487085</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1708056900270302</v>
+        <v>-0.1670008047021221</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1331787906762221</v>
+        <v>-0.1288993897217687</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2746434677082927</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.386863684415885</v>
+        <v>-1.38807552433134</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2389899358724664</v>
+        <v>-0.2348171184286494</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1355411484873124</v>
+        <v>-0.133324795485313</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2847992232040667</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491998827346039</v>
+        <v>-1.491698057439312</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2840689206792725</v>
+        <v>-0.281325490316455</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1404454500246747</v>
+        <v>-0.1380670316845844</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2711933557522573</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.648739370049361</v>
+        <v>-1.643912451060817</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2920539236884522</v>
+        <v>-0.2919079188793613</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1498160386721267</v>
+        <v>-0.1484333731300362</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2357345744171304</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.743686297401153</v>
+        <v>-1.738576129082973</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2911194929102706</v>
+        <v>-0.2909253065141797</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1652545871853953</v>
+        <v>-0.166298521570395</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1890906344783756</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.584433011933378</v>
+        <v>-1.578870228707016</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2241850482306522</v>
+        <v>-0.2237543340438341</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1698420582870304</v>
+        <v>-0.1732892318296659</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1448065400414256</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.422408555189058</v>
+        <v>-1.420546993873149</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1497912178545813</v>
+        <v>-0.1471222499444002</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1514921738804899</v>
+        <v>-0.1528310379798532</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1088253449981776</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.152898278088221</v>
+        <v>-1.151004595714312</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008941838572710003</v>
+        <v>-0.005583727963619996</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.127215954272951</v>
+        <v>-0.1302630746386774</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08029098829759237</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7796603444168667</v>
+        <v>-0.7801640610082302</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07688124825899423</v>
+        <v>0.08056202949617505</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1142478071294999</v>
+        <v>-0.1173212083608627</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.05424337738975345</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4004332934766049</v>
+        <v>-0.4052032705896036</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1156382248321656</v>
+        <v>0.1237298113519816</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07151657965287501</v>
+        <v>-0.0732248359192382</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.02557940079970874</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07132576527308662</v>
+        <v>0.06395836260636133</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1291159287593438</v>
+        <v>0.1369315661899781</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02862519880637082</v>
+        <v>0.02776085033655287</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01085791882025986</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6126999169973049</v>
+        <v>0.6045572287943071</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0469838435014568</v>
+        <v>0.05660556042054513</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1827449551865113</v>
+        <v>0.1788057454372396</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.05828681061817542</v>
       </c>
       <c r="E14" t="n">
-        <v>1.178024697604789</v>
+        <v>1.168686230015337</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09822377933177694</v>
+        <v>-0.09069139123077896</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3121022959448402</v>
+        <v>0.307643309075205</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.11562396111616</v>
       </c>
       <c r="E15" t="n">
-        <v>1.82435440634398</v>
+        <v>1.8166424323278</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2632442547586417</v>
+        <v>-0.2594437495780064</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4930927773900643</v>
+        <v>0.489290812161338</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1777050615225489</v>
       </c>
       <c r="E16" t="n">
-        <v>2.456070493741264</v>
+        <v>2.444055758001177</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5003925659244871</v>
+        <v>-0.4963073513661246</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6125904133904867</v>
+        <v>0.6069195866053974</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2422531719291482</v>
       </c>
       <c r="E17" t="n">
-        <v>3.068338740567646</v>
+        <v>3.055189547460922</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6378049920003593</v>
+        <v>-0.6306419960663613</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7983362714678005</v>
+        <v>0.7934947519983473</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3097921732508995</v>
       </c>
       <c r="E18" t="n">
-        <v>3.673408950305847</v>
+        <v>3.655051765658852</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7612243171729626</v>
+        <v>-0.7535430041666918</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9384439463194901</v>
+        <v>0.9357618379764908</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3789757639411269</v>
       </c>
       <c r="E19" t="n">
-        <v>4.20717625147643</v>
+        <v>4.188982592215617</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9193008038794656</v>
+        <v>-0.9117917765479221</v>
       </c>
       <c r="G19" t="n">
-        <v>1.091746075768722</v>
+        <v>1.088170417994086</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4471053532644029</v>
       </c>
       <c r="E20" t="n">
-        <v>4.751607743903012</v>
+        <v>4.732111721745108</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.135104672004317</v>
+        <v>-1.12673859644341</v>
       </c>
       <c r="G20" t="n">
-        <v>1.250647489646588</v>
+        <v>1.247266018268044</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5113437987586098</v>
       </c>
       <c r="E21" t="n">
-        <v>5.214180180064706</v>
+        <v>5.19140342984653</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.293102316113911</v>
+        <v>-1.283226550827004</v>
       </c>
       <c r="G21" t="n">
-        <v>1.427609698408995</v>
+        <v>1.42329525630036</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5699162019814888</v>
       </c>
       <c r="E22" t="n">
-        <v>5.617578327149961</v>
+        <v>5.595128627704149</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.499173503664764</v>
+        <v>-1.490294951223949</v>
       </c>
       <c r="G22" t="n">
-        <v>1.541981105562237</v>
+        <v>1.538928145004147</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6215377083349046</v>
       </c>
       <c r="E23" t="n">
-        <v>5.892133070404888</v>
+        <v>5.86666983169944</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.681369984833079</v>
+        <v>-1.669974309483537</v>
       </c>
       <c r="G23" t="n">
-        <v>1.704601261927648</v>
+        <v>1.699809384093286</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6655981031270426</v>
       </c>
       <c r="E24" t="n">
-        <v>6.19545806129117</v>
+        <v>6.171298645530904</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.852195611469397</v>
+        <v>-1.842770271018536</v>
       </c>
       <c r="G24" t="n">
-        <v>1.815843786022073</v>
+        <v>1.813698975376528</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7010757556785491</v>
       </c>
       <c r="E25" t="n">
-        <v>6.405923993595659</v>
+        <v>6.383281567801847</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.987904161423179</v>
+        <v>-1.977991164909954</v>
       </c>
       <c r="G25" t="n">
-        <v>1.916289254484228</v>
+        <v>1.916540382755864</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7273749093530316</v>
       </c>
       <c r="E26" t="n">
-        <v>6.503734075253723</v>
+        <v>6.483175138085637</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.092052311843878</v>
+        <v>-2.084838214226698</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98094894423821</v>
+        <v>1.980294842693483</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7444363198789734</v>
       </c>
       <c r="E27" t="n">
-        <v>6.557564588317436</v>
+        <v>6.536482953932805</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.1795267130664</v>
+        <v>-2.173211275049174</v>
       </c>
       <c r="G27" t="n">
-        <v>2.062548111942915</v>
+        <v>2.06249117006737</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.752389470476862</v>
       </c>
       <c r="E28" t="n">
-        <v>6.667590892352133</v>
+        <v>6.646966253019957</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.236883972293703</v>
+        <v>-2.232763716581158</v>
       </c>
       <c r="G28" t="n">
-        <v>2.093715758539544</v>
+        <v>2.092298051843271</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7508670082224242</v>
       </c>
       <c r="E29" t="n">
-        <v>6.604673039970605</v>
+        <v>6.58382647332861</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.297071534745232</v>
+        <v>-2.293030121629597</v>
       </c>
       <c r="G29" t="n">
-        <v>2.137279213427986</v>
+        <v>2.138349428678623</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7397702537209302</v>
       </c>
       <c r="E30" t="n">
-        <v>6.574216436794249</v>
+        <v>6.550023439927893</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.330587668696086</v>
+        <v>-2.328324594155178</v>
       </c>
       <c r="G30" t="n">
-        <v>2.121350088756173</v>
+        <v>2.122815977039445</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7201810996548786</v>
       </c>
       <c r="E31" t="n">
-        <v>6.484378217712546</v>
+        <v>6.461013068113735</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.311393876493001</v>
+        <v>-2.310166706072592</v>
       </c>
       <c r="G31" t="n">
-        <v>2.102008831695905</v>
+        <v>2.105569888989631</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.69435600780286</v>
       </c>
       <c r="E32" t="n">
-        <v>6.307180941207503</v>
+        <v>6.285964982398509</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.317988913719635</v>
+        <v>-2.315767450549318</v>
       </c>
       <c r="G32" t="n">
-        <v>2.041432896452194</v>
+        <v>2.042706058387466</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6643308526211752</v>
       </c>
       <c r="E33" t="n">
-        <v>6.126806600056643</v>
+        <v>6.101912780106649</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.336757831928267</v>
+        <v>-2.338779998534176</v>
       </c>
       <c r="G33" t="n">
-        <v>1.977979206421302</v>
+        <v>1.976837448814211</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.631905079195597</v>
       </c>
       <c r="E34" t="n">
-        <v>5.885098558702889</v>
+        <v>5.862902907624895</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.385189087151799</v>
+        <v>-2.381717092791618</v>
       </c>
       <c r="G34" t="n">
-        <v>1.892583913680234</v>
+        <v>1.893481843256143</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5978720531997674</v>
       </c>
       <c r="E35" t="n">
-        <v>5.660995777229313</v>
+        <v>5.637938697777683</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.371925280269939</v>
+        <v>-2.369368006038712</v>
       </c>
       <c r="G35" t="n">
-        <v>1.824414268315707</v>
+        <v>1.824824541829252</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5617123029182163</v>
       </c>
       <c r="E36" t="n">
-        <v>5.470684348771727</v>
+        <v>5.448157266777097</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.335970135983222</v>
+        <v>-2.329891225756723</v>
       </c>
       <c r="G36" t="n">
-        <v>1.735339654385549</v>
+        <v>1.737211436038094</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5236682747371373</v>
       </c>
       <c r="E37" t="n">
-        <v>5.106698739852462</v>
+        <v>5.086052199798922</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.274225432242738</v>
+        <v>-2.26986645866733</v>
       </c>
       <c r="G37" t="n">
-        <v>1.649907860442208</v>
+        <v>1.649972102558208</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4844539087660283</v>
       </c>
       <c r="E38" t="n">
-        <v>4.836604443515261</v>
+        <v>4.810952858606087</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.171855620396765</v>
+        <v>-2.164559760086495</v>
       </c>
       <c r="G38" t="n">
-        <v>1.553914078609234</v>
+        <v>1.550028890639326</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4450897457297599</v>
       </c>
       <c r="E39" t="n">
-        <v>4.542823786999249</v>
+        <v>4.517435010746438</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.154639463332816</v>
+        <v>-2.146743523257181</v>
       </c>
       <c r="G39" t="n">
-        <v>1.442903702161264</v>
+        <v>1.43793223841172</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4058366507305332</v>
       </c>
       <c r="E40" t="n">
-        <v>4.272459381765231</v>
+        <v>4.249009549377146</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.12601522051055</v>
+        <v>-2.117794419734689</v>
       </c>
       <c r="G40" t="n">
-        <v>1.383320599619371</v>
+        <v>1.382520493265553</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3662021558961203</v>
       </c>
       <c r="E41" t="n">
-        <v>3.97448692718022</v>
+        <v>3.954858040646044</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.036184301669302</v>
+        <v>-2.028055483923168</v>
       </c>
       <c r="G41" t="n">
-        <v>1.263084179284949</v>
+        <v>1.262269472450221</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3259134391020743</v>
       </c>
       <c r="E42" t="n">
-        <v>3.717362238034562</v>
+        <v>3.700383338785385</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.941243214509873</v>
+        <v>-1.933341434241875</v>
       </c>
       <c r="G42" t="n">
-        <v>1.158239585924886</v>
+        <v>1.157375237455068</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2853635728463029</v>
       </c>
       <c r="E43" t="n">
-        <v>3.448434520121998</v>
+        <v>3.429467035373003</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.874294899373391</v>
+        <v>-1.865800339580484</v>
       </c>
       <c r="G43" t="n">
-        <v>1.065640415903274</v>
+        <v>1.064381854448911</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2445882392669946</v>
       </c>
       <c r="E44" t="n">
-        <v>3.180937649338524</v>
+        <v>3.160981712031984</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.833219366431857</v>
+        <v>-1.825623466238904</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9332388748754007</v>
+        <v>0.9303450595592196</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2039525877332723</v>
       </c>
       <c r="E45" t="n">
-        <v>2.922192306811958</v>
+        <v>2.903273003649963</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.748427073552334</v>
+        <v>-1.742756246767244</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8110109489449789</v>
+        <v>0.8100546174454337</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1636701701957194</v>
       </c>
       <c r="E46" t="n">
-        <v>2.671775078595934</v>
+        <v>2.654699816172756</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.698245220667802</v>
+        <v>-1.694656422460348</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7708202051465352</v>
+        <v>0.7689557237344448</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1245915092564149</v>
       </c>
       <c r="E47" t="n">
-        <v>2.372003844762923</v>
+        <v>2.354589851182655</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.651487180556451</v>
+        <v>-1.647632653596452</v>
       </c>
       <c r="G47" t="n">
-        <v>0.662687583485746</v>
+        <v>0.6623254915592006</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.08604918082674334</v>
       </c>
       <c r="E48" t="n">
-        <v>2.178791300748703</v>
+        <v>2.163252008917161</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.617492880855824</v>
+        <v>-1.613696755819461</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6003114089459446</v>
+        <v>0.6001055421651265</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.0469830268430798</v>
       </c>
       <c r="E49" t="n">
-        <v>1.982289268385664</v>
+        <v>1.965765904140851</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.567467253117019</v>
+        <v>-1.565132636219656</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5386243771050521</v>
+        <v>0.5391806554276882</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.006545797413723888</v>
       </c>
       <c r="E50" t="n">
-        <v>1.868574882873331</v>
+        <v>1.853761234942972</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.493612180486493</v>
+        <v>-1.492165272828403</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4773578391143412</v>
+        <v>0.4778440351286138</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.03621810774864936</v>
       </c>
       <c r="E51" t="n">
-        <v>1.691202400597379</v>
+        <v>1.677311503060473</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.434083099723964</v>
+        <v>-1.435052571656327</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4197472615432658</v>
+        <v>0.4196289976479022</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.08080913515534523</v>
       </c>
       <c r="E52" t="n">
-        <v>1.572700517394956</v>
+        <v>1.558932263897687</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.39339447952652</v>
+        <v>-1.395329043246974</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3387905149985603</v>
+        <v>0.3388854181244693</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1269939847142967</v>
       </c>
       <c r="E53" t="n">
-        <v>1.392752510286641</v>
+        <v>1.38246793153428</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.356169093400712</v>
+        <v>-1.357626221395439</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2727919611452144</v>
+        <v>0.2719860145990328</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1752733384078208</v>
       </c>
       <c r="E54" t="n">
-        <v>1.343880320539654</v>
+        <v>1.329840498097476</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.336928579658717</v>
+        <v>-1.338852923042535</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2178007098492291</v>
+        <v>0.2204769779998648</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2255703993460708</v>
       </c>
       <c r="E55" t="n">
-        <v>1.219127971460051</v>
+        <v>1.207538109714418</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.301871364947908</v>
+        <v>-1.302537146877363</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1663997168087884</v>
+        <v>0.1637891508222436</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2769833488017694</v>
       </c>
       <c r="E56" t="n">
-        <v>1.189779544784695</v>
+        <v>1.177461119041699</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.247521074763832</v>
+        <v>-1.250014836903104</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1072473284537133</v>
+        <v>0.1032643172617144</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.327590965132938</v>
       </c>
       <c r="E57" t="n">
-        <v>1.099788020653447</v>
+        <v>1.086619846921541</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.240720170756379</v>
+        <v>-1.241349451483561</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06479059001817929</v>
+        <v>0.05992716982736242</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3763884429657589</v>
       </c>
       <c r="E58" t="n">
-        <v>1.04712408601437</v>
+        <v>1.03263164866401</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.20257787442948</v>
+        <v>-1.203888997615116</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01245179418325451</v>
+        <v>-0.01724805216188959</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4225620202820664</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9379650505456721</v>
+        <v>0.9239369084882213</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.117414729334867</v>
+        <v>-1.120028215417594</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.08833925375632505</v>
+        <v>-0.09387721616514175</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4665694229374738</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9182047596833137</v>
+        <v>0.8990868899809553</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.09960068257769</v>
+        <v>-1.100995028504508</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1141996255424999</v>
+        <v>-0.1208968661354981</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5087929822649864</v>
       </c>
       <c r="E61" t="n">
-        <v>0.784944710377986</v>
+        <v>0.7665189034707182</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.068752786512971</v>
+        <v>-1.071375032884243</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1424194350435833</v>
+        <v>-0.1497663970370358</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5492269983968276</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7453847073548148</v>
+        <v>0.7269063387162742</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.063531654539881</v>
+        <v>-1.066022496582972</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2190412988063808</v>
+        <v>-0.224796808380743</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5874813612017152</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6553946432716571</v>
+        <v>0.6357088148619351</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.098609309923963</v>
+        <v>-1.100876764609144</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2332723875484679</v>
+        <v>-0.2401097927581934</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6227503503754609</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5706957934699526</v>
+        <v>0.5452982569285957</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.084186954881967</v>
+        <v>-1.087239915440057</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2818890688795458</v>
+        <v>-0.2909092459851798</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6546823258179018</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4877256406078839</v>
+        <v>0.4602285549118004</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.052687877368703</v>
+        <v>-1.054714424118884</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3133954466332646</v>
+        <v>-0.3236464442795346</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6821170809177156</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4381453275368063</v>
+        <v>0.4116410745425407</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.068837469302244</v>
+        <v>-1.070531125087698</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3424022220553478</v>
+        <v>-0.3522955079193451</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7045066455438767</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4130982025372676</v>
+        <v>0.3828606065745484</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.086711378031148</v>
+        <v>-1.089139438006329</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3731829559078849</v>
+        <v>-0.3860488996849724</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7208426852598788</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3341694627908342</v>
+        <v>0.3035683148534788</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.102843449387598</v>
+        <v>-1.104252395795325</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3852867545815181</v>
+        <v>-0.3961947738686969</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7304023578405475</v>
       </c>
       <c r="E69" t="n">
-        <v>0.232018658158498</v>
+        <v>0.1989252081299615</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.14479939132795</v>
+        <v>-1.145542555806223</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4069056866636032</v>
+        <v>-0.4197351292384179</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7326720659080639</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1696716845805148</v>
+        <v>0.1355459805517057</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.192943017077574</v>
+        <v>-1.193702242084846</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4247138932284165</v>
+        <v>-0.4364293191098679</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7276743610573794</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1156396848802565</v>
+        <v>0.08516556112681019</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.282262919087005</v>
+        <v>-1.279669873677551</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4865352494936727</v>
+        <v>-0.4968942906986699</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7157070506661195</v>
       </c>
       <c r="E72" t="n">
-        <v>0.03191614720327902</v>
+        <v>-0.001720440715075578</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.31705732514145</v>
+        <v>-1.315719921090177</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4810469287199469</v>
+        <v>-0.4907796092939443</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6970893259265925</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01816103413882817</v>
+        <v>-0.01512076209343562</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.307346545288816</v>
+        <v>-1.305943439073453</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5308769100145698</v>
+        <v>-0.540724934387749</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6726464471347686</v>
       </c>
       <c r="E74" t="n">
-        <v>0.04723643182118401</v>
+        <v>0.01498542954110175</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.347788417358896</v>
+        <v>-1.346083081188715</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5185468038868459</v>
+        <v>-0.5256732986185713</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6430656383010372</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05379642789363679</v>
+        <v>0.02039636776600939</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.398751395972064</v>
+        <v>-1.396297055131247</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4679532174406776</v>
+        <v>-0.4765529006961299</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6084024448424583</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1032307361556235</v>
+        <v>0.07222369484899548</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.344593832135988</v>
+        <v>-1.342549764808715</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4783692005212203</v>
+        <v>-0.4870272857003089</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5688937757443858</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2164297246918658</v>
+        <v>0.185516126463056</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.343319210152624</v>
+        <v>-1.340816687724807</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4246379707276893</v>
+        <v>-0.4326448744582326</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.523911612634698</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2980186720599348</v>
+        <v>0.2703493006891241</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.309403753048906</v>
+        <v>-1.306964012688998</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4277230523437794</v>
+        <v>-0.4339618378362323</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4732135919219526</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3883620677810924</v>
+        <v>0.3627134029680993</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.318486712222449</v>
+        <v>-1.322284297306903</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3960181080496969</v>
+        <v>-0.4020597870498772</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.417060455924789</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4871372412272477</v>
+        <v>0.4655927715977989</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.33764108312708</v>
+        <v>-1.337960833658989</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.339534687604803</v>
+        <v>-0.3439119117813473</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3566049600709688</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5824126793994948</v>
+        <v>0.5646803953354087</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.28657736119564</v>
+        <v>-1.286167087682094</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2885746290878167</v>
+        <v>-0.2923897347493611</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2935525248104689</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7142068404215504</v>
+        <v>0.700794838658463</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.218953773817112</v>
+        <v>-1.221203707925203</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2558929126209164</v>
+        <v>-0.2591853210659155</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2296466206244925</v>
       </c>
       <c r="E83" t="n">
-        <v>0.867091396116782</v>
+        <v>0.8564228247165122</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.1643684158904</v>
+        <v>-1.165203563398399</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2131105834611097</v>
+        <v>-0.2158540138239272</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1659737847189916</v>
       </c>
       <c r="E84" t="n">
-        <v>1.034281503006737</v>
+        <v>1.025792783406194</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.07286428193697</v>
+        <v>-1.074233807046242</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1662152988292132</v>
+        <v>-0.1657174224302134</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.102572215162235</v>
       </c>
       <c r="E85" t="n">
-        <v>1.124029199106804</v>
+        <v>1.12044040089935</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9993917419062622</v>
+        <v>-1.003481336608897</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1313070090236771</v>
+        <v>-0.1312719678694953</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.03974465524608459</v>
       </c>
       <c r="E86" t="n">
-        <v>1.285490077288033</v>
+        <v>1.285806907723761</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9233918586301917</v>
+        <v>-0.927049279097918</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04730168206515425</v>
+        <v>-0.04635119075797269</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.02193679708159894</v>
       </c>
       <c r="E87" t="n">
-        <v>1.385656676564825</v>
+        <v>1.383599468804734</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8230398332458551</v>
+        <v>-0.8267089340983086</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01763350485788949</v>
+        <v>-0.01736193591298047</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.08046687397746781</v>
       </c>
       <c r="E88" t="n">
-        <v>1.472211247490074</v>
+        <v>1.470828581947984</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6966566104487072</v>
+        <v>-0.6989518060476156</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03288269903946058</v>
+        <v>0.03393977385727848</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1340153222140496</v>
       </c>
       <c r="E89" t="n">
-        <v>1.568672244712139</v>
+        <v>1.568393375526776</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5630505297458339</v>
+        <v>-0.5669415579081056</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07955167621726623</v>
+        <v>0.07934288934026629</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1803629069453221</v>
       </c>
       <c r="E90" t="n">
-        <v>1.626574831901396</v>
+        <v>1.628890468173577</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4365183820434134</v>
+        <v>-0.4384967472065947</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09127440233917218</v>
+        <v>0.09257822528435365</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2166922004531362</v>
       </c>
       <c r="E91" t="n">
-        <v>1.667597803111658</v>
+        <v>1.673011661432747</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2741449738053661</v>
+        <v>-0.2786813432238194</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1044732370809868</v>
+        <v>0.1068764762386225</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2409206146481976</v>
       </c>
       <c r="E92" t="n">
-        <v>1.696741823054287</v>
+        <v>1.702881325276558</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.117475973458499</v>
+        <v>-0.119331694582044</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1051112780967139</v>
+        <v>0.1034658038982598</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2520314582338645</v>
       </c>
       <c r="E93" t="n">
-        <v>1.691690056659742</v>
+        <v>1.699041398797468</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03845278250627727</v>
+        <v>0.03903096155027712</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09997336886480621</v>
+        <v>0.09921414385753369</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2509757177061206</v>
       </c>
       <c r="E94" t="n">
-        <v>1.639191107454938</v>
+        <v>1.647565943304391</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1453034819432486</v>
+        <v>0.1492777328467021</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06097986450090759</v>
+        <v>0.06028196151345323</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2401784721445271</v>
       </c>
       <c r="E95" t="n">
-        <v>1.546561276423418</v>
+        <v>1.557499956720506</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2291744844774079</v>
+        <v>0.2340846262071338</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0123237618713752</v>
+        <v>0.01149591460382996</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.22211660326127</v>
       </c>
       <c r="E96" t="n">
-        <v>1.423528863994905</v>
+        <v>1.43441352251263</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3072549362830232</v>
+        <v>0.3135010220159307</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02602002109206905</v>
+        <v>-0.02868606890606834</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1994616322316739</v>
       </c>
       <c r="E97" t="n">
-        <v>1.26848489717322</v>
+        <v>1.280229524016489</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3587070310066458</v>
+        <v>0.3631674779243719</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04664174032806351</v>
+        <v>-0.04922748549706282</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1734590446287947</v>
       </c>
       <c r="E98" t="n">
-        <v>1.138201885925255</v>
+        <v>1.147349087214798</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3785636850430041</v>
+        <v>0.3824182120030031</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08316776341832643</v>
+        <v>-0.08649083287323463</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1466760560717038</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9873190561626588</v>
+        <v>0.9935680619917481</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3745719135624597</v>
+        <v>0.3774190073397317</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1239746475111337</v>
+        <v>-0.1268261214326784</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1168422643480781</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8816962571701418</v>
+        <v>0.885210592924959</v>
       </c>
       <c r="F100" t="n">
-        <v>0.345446874245013</v>
+        <v>0.3466397335352854</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1377370608160391</v>
+        <v>-0.1411944546953109</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.08684044748039699</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7431917151222699</v>
+        <v>0.7448182086955422</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3480968615300123</v>
+        <v>0.3477449899401033</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1311040623390408</v>
+        <v>-0.1337336089507674</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.04995803346187705</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6279574195473008</v>
+        <v>0.6313418110220271</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3047305131338421</v>
+        <v>0.3052546703984784</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1946015538126601</v>
+        <v>-0.1947183576599328</v>
       </c>
     </row>
   </sheetData>
